--- a/Data/2016 presidential election per state.xlsx
+++ b/Data/2016 presidential election per state.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\project-one\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BCADB4DA-3C5E-4D40-AFFE-E4F8DA8872EB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E35637BF-8569-4155-92F1-237C9513806B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A417078E-EADE-4106-89C1-EBBCEE2FA9D5}"/>
+    <workbookView xWindow="-21720" yWindow="975" windowWidth="21840" windowHeight="13140" xr2:uid="{A417078E-EADE-4106-89C1-EBBCEE2FA9D5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="56">
   <si>
     <t>State Abbreviations</t>
   </si>
@@ -195,6 +195,9 @@
   </si>
   <si>
     <t>Democratic</t>
+  </si>
+  <si>
+    <t>Number</t>
   </si>
 </sst>
 </file>
@@ -546,432 +549,588 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4F9C9A7-6A13-4737-B5D1-D07808D856AD}">
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="B8" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
       <c r="B10" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
       <c r="B11" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>12</v>
       </c>
       <c r="B12" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>13</v>
       </c>
       <c r="B13" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>14</v>
       </c>
       <c r="B14" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>15</v>
       </c>
       <c r="B15" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>16</v>
       </c>
       <c r="B16" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>17</v>
       </c>
       <c r="B17" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>18</v>
       </c>
       <c r="B18" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>19</v>
       </c>
       <c r="B19" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>20</v>
       </c>
       <c r="B20" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>21</v>
       </c>
       <c r="B21" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>22</v>
       </c>
       <c r="B22" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>24</v>
       </c>
       <c r="B24" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>25</v>
       </c>
       <c r="B25" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>26</v>
       </c>
       <c r="B26" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>27</v>
       </c>
       <c r="B27" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>28</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>29</v>
       </c>
       <c r="B29" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>30</v>
       </c>
       <c r="B30" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>31</v>
       </c>
       <c r="B31" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>32</v>
       </c>
       <c r="B32" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>33</v>
       </c>
       <c r="B33" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>34</v>
       </c>
       <c r="B34" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>35</v>
       </c>
       <c r="B35" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>36</v>
       </c>
       <c r="B36" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>37</v>
       </c>
       <c r="B37" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>38</v>
       </c>
       <c r="B38" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>39</v>
       </c>
       <c r="B39" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>40</v>
       </c>
       <c r="B40" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>41</v>
       </c>
       <c r="B41" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>42</v>
       </c>
       <c r="B42" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>43</v>
       </c>
       <c r="B43" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>44</v>
       </c>
       <c r="B44" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>45</v>
       </c>
       <c r="B45" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>46</v>
       </c>
       <c r="B46" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>47</v>
       </c>
       <c r="B47" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>48</v>
       </c>
       <c r="B48" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>49</v>
       </c>
       <c r="B49" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>50</v>
       </c>
       <c r="B50" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>51</v>
       </c>
       <c r="B51" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>52</v>
       </c>
       <c r="B52" t="s">
         <v>53</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
